--- a/biology/Botanique/Pinax_theatri_botanici/Pinax_theatri_botanici.xlsx
+++ b/biology/Botanique/Pinax_theatri_botanici/Pinax_theatri_botanici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pinax theatri botanici (Exposition illustrée de plantes) est un ouvrage de botanique écrit par le botaniste suisse Gaspard Bauhin (1560-1624) et publié à Bâle en 1623 sous le titre complet de Pinax theatri botanici, sive Index in Theophrasti Dioscoridis, Plinii et Botanicorum qui a saeculo scripserunt opera. Il traite de plus de 6 000 espèces de plantes et est considéré comme la plus haute expression des herbiers européens de la Renaissance. La nomenclature utilisée par Bauhin dans cet ouvrage a eu une grande influence sur des botanistes renommés tels John Ray (1628-1707), Joseph Pitton de Tournefort (1656-1708), et même Linné (1707-1778)[1].
+Pinax theatri botanici (Exposition illustrée de plantes) est un ouvrage de botanique écrit par le botaniste suisse Gaspard Bauhin (1560-1624) et publié à Bâle en 1623 sous le titre complet de Pinax theatri botanici, sive Index in Theophrasti Dioscoridis, Plinii et Botanicorum qui a saeculo scripserunt opera. Il traite de plus de 6 000 espèces de plantes et est considéré comme la plus haute expression des herbiers européens de la Renaissance. La nomenclature utilisée par Bauhin dans cet ouvrage a eu une grande influence sur des botanistes renommés tels John Ray (1628-1707), Joseph Pitton de Tournefort (1656-1708), et même Linné (1707-1778).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de classification utilisé par Bauhin dans ce travail n'est pas particulièrement innovant, car il utilise des catégories traditionnelles, auxquelles il ajoute d'autres caractéristiques liées à l'utilisation des plantes. Par exemple, il regroupe toutes les épices ou plantes aromatiques dans le groupe Aromata. Cependant, il a correctement regroupé toutes les espèces de graminées et légumineuses. Il a introduit plusieurs noms de genres qui vont être plus tard utilisés par Linné et ses successeurs. Pour décrire les espèces, par exemple, il a synthétisé leur description de façon à n'utiliser que quelques mots et, dans de nombreux cas, un seul.
 </t>
